--- a/cfgdefine/test1/item.xlsx
+++ b/cfgdefine/test1/item.xlsx
@@ -1,99 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\perfect_gen\test\yml\test1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B7929-3123-49EB-A6B6-AA5B8B53CABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="4118" windowWidth="21600" windowHeight="11482" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24000" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>##类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>内容</t>
   </si>
   <si>
     <t>ItemNormal</t>
   </si>
   <si>
     <t>灵丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色</t>
   </si>
   <si>
     <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奥术水晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
   </si>
   <si>
     <t>铁矿石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemPackageCurrency</t>
+  </si>
+  <si>
+    <t>大礼包</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -101,18 +83,355 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -120,27 +439,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -189,7 +794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -224,7 +829,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -398,63 +1003,61 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="16.2232142857143" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="2" ht="17.6" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -463,33 +1066,33 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="3" ht="17.6" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -498,33 +1101,33 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="4" ht="17.6" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -533,15 +1136,41 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cfgdefine/test1/item.xlsx
+++ b/cfgdefine/test1/item.xlsx
@@ -66,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -100,8 +100,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,6 +112,69 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,17 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,31 +195,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,32 +216,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,27 +232,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,25 +252,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,127 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,24 +464,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -493,6 +475,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,145 +528,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,10 +1009,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4"/>
@@ -1142,7 +1142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1165,6 +1165,36 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/cfgdefine/test1/item.xlsx
+++ b/cfgdefine/test1/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\java\GameCfgGen\cfgdefine\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4047A22-53F7-4A6E-90A0-4372229B6DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5008756-2048-4CEB-9E01-66A483BE3848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3998" yWindow="4178" windowWidth="23624" windowHeight="11422" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3998" yWindow="4178" windowWidth="23624" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>ItemNormal</t>
   </si>
@@ -164,6 +164,14 @@
   </si>
   <si>
     <t>Weapon;3;20,21,22;1;100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>canUse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -510,24 +518,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.59765625" customWidth="1"/>
-    <col min="5" max="5" width="23.1328125" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -541,10 +549,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -558,10 +569,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,11 +588,14 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,11 +608,14 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +628,10 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -621,26 +644,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E815F28-BA47-44E9-AD2A-A175DC49181B}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="23.796875" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -654,15 +677,18 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -675,16 +701,17 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -697,42 +724,45 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -745,45 +775,48 @@
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G8">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G9">
         <v>30</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -793,27 +826,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE473AA7-535B-453D-A406-3AC23C4CC1A7}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" customWidth="1"/>
-    <col min="5" max="5" width="25.73046875" customWidth="1"/>
-    <col min="6" max="6" width="30.1328125" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="4" max="5" width="14.265625" customWidth="1"/>
+    <col min="6" max="6" width="25.73046875" customWidth="1"/>
+    <col min="7" max="7" width="30.1328125" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -826,13 +859,16 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -845,8 +881,9 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -859,19 +896,22 @@
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cfgdefine/test1/item.xlsx
+++ b/cfgdefine/test1/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\java\GameCfgGen\cfgdefine\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5008756-2048-4CEB-9E01-66A483BE3848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B54AB8-3F3D-40AD-A29D-1D8B4D19F07A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3998" yWindow="4178" windowWidth="23624" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="3060" windowWidth="23625" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <t>ItemNormal</t>
   </si>
   <si>
-    <t>灵丹</t>
-  </si>
-  <si>
     <t>黑色</t>
   </si>
   <si>
@@ -39,9 +36,6 @@
     <t>白色</t>
   </si>
   <si>
-    <t>铁矿石</t>
-  </si>
-  <si>
     <t>ItemPackageCurrency</t>
   </si>
   <si>
@@ -172,6 +166,13 @@
   </si>
   <si>
     <t>能否使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeInt</t>
+  </si>
+  <si>
+    <t>测试值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -518,84 +519,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.59765625" customWidth="1"/>
-    <col min="6" max="6" width="23.1328125" customWidth="1"/>
+    <col min="7" max="7" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,36 +610,39 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +657,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -660,75 +670,75 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -737,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -748,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -759,58 +769,58 @@
         <v>6</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G8">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G9">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -843,70 +853,70 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/cfgdefine/test1/item.xlsx
+++ b/cfgdefine/test1/item.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\java\GameCfgGen\cfgdefine\test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiong\IdeaProjects\GameConfigGen\cfgdefine\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B54AB8-3F3D-40AD-A29D-1D8B4D19F07A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="3060" windowWidth="23625" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4272" yWindow="3060" windowWidth="23628" windowHeight="11424" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>ItemNormal</t>
   </si>
@@ -36,9 +35,6 @@
     <t>白色</t>
   </si>
   <si>
-    <t>ItemPackageCurrency</t>
-  </si>
-  <si>
     <t>大礼包</t>
   </si>
   <si>
@@ -141,10 +137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ItemTest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>测试物品6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -173,13 +165,48 @@
   </si>
   <si>
     <t>测试值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ItemPackageCurrency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ItemPackageCurrency</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ItemTest</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,71 +545,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.59765625" customWidth="1"/>
-    <col min="7" max="7" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.4" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,10 +649,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.4" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -653,83 +680,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E815F28-BA47-44E9-AD2A-A175DC49181B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="23.796875" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" customWidth="1"/>
-    <col min="8" max="8" width="13.19921875" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -738,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -747,10 +774,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5">
         <v>3</v>
       </c>
@@ -758,10 +785,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G6">
         <v>5</v>
       </c>
@@ -769,27 +796,27 @@
         <v>6</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
@@ -798,10 +825,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>4</v>
       </c>
@@ -809,10 +836,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>6</v>
       </c>
@@ -820,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -830,93 +857,93 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE473AA7-535B-453D-A406-3AC23C4CC1A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="25.73046875" customWidth="1"/>
-    <col min="7" max="7" width="30.1328125" customWidth="1"/>
+    <col min="4" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" customWidth="1"/>
     <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/cfgdefine/test1/item.xlsx
+++ b/cfgdefine/test1/item.xlsx
@@ -86,10 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>packageCurrencyContent</t>
   </si>
   <si>
@@ -101,10 +97,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>##三行表头的格式固定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -168,38 +160,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>##ItemPackageCurrency</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ItemPackageCurrency</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##ItemTest</t>
+    <t>ItemPackageCurrency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三行表头的格式固定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币礼包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试物品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -224,6 +201,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -548,9 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -560,7 +536,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -577,10 +553,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -600,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -683,12 +659,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" customWidth="1"/>
     <col min="7" max="7" width="13.109375" customWidth="1"/>
     <col min="8" max="8" width="13.21875" customWidth="1"/>
@@ -697,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -714,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -743,14 +718,14 @@
         <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -765,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -774,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -785,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -796,27 +771,27 @@
         <v>6</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
@@ -825,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -836,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -847,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -866,7 +841,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -880,7 +855,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,10 +872,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -922,28 +897,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/cfgdefine/test1/item.xlsx
+++ b/cfgdefine/test1/item.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiong\IdeaProjects\GameConfigGen\cfgdefine\test1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="3060" windowWidth="23628" windowHeight="11424" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+  <si>
+    <t>三行表头的格式固定</t>
+  </si>
+  <si>
+    <t>_type</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>itemName</t>
+  </si>
+  <si>
+    <t>itemColor</t>
+  </si>
+  <si>
+    <t>canUse</t>
+  </si>
+  <si>
+    <t>rangeInt</t>
+  </si>
+  <si>
+    <t>normalContent</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>能否使用</t>
+  </si>
+  <si>
+    <t>测试值</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
   <si>
     <t>ItemNormal</t>
   </si>
@@ -29,162 +66,96 @@
     <t>黑色</t>
   </si>
   <si>
+    <t>1-&gt;2,3|4-&gt;5,6</t>
+  </si>
+  <si>
     <t>奥术水晶</t>
   </si>
   <si>
     <t>白色</t>
   </si>
   <si>
+    <t>7-&gt;2,3|8-&gt;5,6</t>
+  </si>
+  <si>
+    <t>10-&gt;2,3|9-&gt;5,6</t>
+  </si>
+  <si>
+    <t>货币礼包</t>
+  </si>
+  <si>
+    <t>packageCurrencyContent</t>
+  </si>
+  <si>
+    <t>bonuses</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>ItemPackageCurrency</t>
+  </si>
+  <si>
     <t>大礼包</t>
   </si>
   <si>
-    <t>_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemColor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalContent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-&gt;2,3|4-&gt;5,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-&gt;2,3|8-&gt;5,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-&gt;2,3|9-&gt;5,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>packageCurrencyContent</t>
-  </si>
-  <si>
-    <t>bonuses</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1-&gt;2|3-&gt;4|5-&gt;6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2000,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2021,200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2022,300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试大礼包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1-&gt;2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试物品</t>
   </si>
   <si>
     <t>equips</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemTest</t>
   </si>
   <si>
     <t>测试物品6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Weapon;1;10,11,12;1;100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShoeEquip;2;20,21,22;1;100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Weapon;3;20,21,22;1;100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>canUse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能否使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rangeInt</t>
-  </si>
-  <si>
-    <t>测试值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemPackageCurrency</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemTest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三行表头的格式固定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币礼包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试物品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,33 +167,348 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -230,37 +516,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -518,82 +1091,84 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="B5 E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="23.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
+    <row r="4" ht="15.6" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -601,22 +1176,22 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
+      <c r="A5" s="7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -624,19 +1199,19 @@
       <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -644,185 +1219,188 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="23.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="13.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="13.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="12.4444444444444" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9">
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="7:9">
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
+      <c r="I6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="b">
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="7:9">
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9">
       <c r="G9">
         <v>6</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
+      <c r="I9" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -830,103 +1408,104 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.3333333333333" customWidth="1"/>
+    <col min="4" max="5" width="14.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="25.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="30.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="24.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="b">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>